--- a/Odleglosc_manhattan.xlsx
+++ b/Odleglosc_manhattan.xlsx
@@ -434,70 +434,117 @@
   <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
   <sheetData>
     <row r="1">
-      <c r="B1" s="1" t="n">
-        <v>0</v>
-      </c>
-      <c r="C1" s="1" t="n">
-        <v>1</v>
-      </c>
-      <c r="D1" s="1" t="n">
-        <v>2</v>
-      </c>
-      <c r="E1" s="1" t="n">
-        <v>3</v>
-      </c>
-      <c r="F1" s="1" t="n">
-        <v>4</v>
-      </c>
-      <c r="G1" s="1" t="n">
-        <v>5</v>
-      </c>
-      <c r="H1" s="1" t="n">
-        <v>6</v>
-      </c>
-      <c r="I1" s="1" t="n">
-        <v>7</v>
-      </c>
-      <c r="J1" s="1" t="n">
-        <v>8</v>
-      </c>
-      <c r="K1" s="1" t="n">
-        <v>9</v>
-      </c>
-      <c r="L1" s="1" t="n">
-        <v>10</v>
-      </c>
-      <c r="M1" s="1" t="n">
-        <v>11</v>
-      </c>
-      <c r="N1" s="1" t="n">
-        <v>12</v>
-      </c>
-      <c r="O1" s="1" t="n">
-        <v>13</v>
-      </c>
-      <c r="P1" s="1" t="n">
-        <v>14</v>
-      </c>
-      <c r="Q1" s="1" t="n">
-        <v>15</v>
-      </c>
-      <c r="R1" s="1" t="n">
-        <v>16</v>
-      </c>
-      <c r="S1" s="1" t="n">
-        <v>17</v>
-      </c>
-      <c r="T1" s="1" t="n">
-        <v>18</v>
-      </c>
-      <c r="U1" s="1" t="n">
-        <v>19</v>
+      <c r="A1" s="1" t="inlineStr">
+        <is>
+          <t>Name</t>
+        </is>
+      </c>
+      <c r="B1" s="1" t="inlineStr">
+        <is>
+          <t>Mocap</t>
+        </is>
+      </c>
+      <c r="C1" s="1" t="inlineStr">
+        <is>
+          <t>Frumin</t>
+        </is>
+      </c>
+      <c r="D1" s="1" t="inlineStr">
+        <is>
+          <t>Rampart</t>
+        </is>
+      </c>
+      <c r="E1" s="1" t="inlineStr">
+        <is>
+          <t>Thiacloprid</t>
+        </is>
+      </c>
+      <c r="F1" s="1" t="inlineStr">
+        <is>
+          <t>DDT</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>Clopyralid</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
+          <t>Acetamiprid</t>
+        </is>
+      </c>
+      <c r="I1" s="1" t="inlineStr">
+        <is>
+          <t>Aminopyralid</t>
+        </is>
+      </c>
+      <c r="J1" s="1" t="inlineStr">
+        <is>
+          <t>Cadusafos</t>
+        </is>
+      </c>
+      <c r="K1" s="1" t="inlineStr">
+        <is>
+          <t>Clothianidin</t>
+        </is>
+      </c>
+      <c r="L1" s="1" t="inlineStr">
+        <is>
+          <t>DDD</t>
+        </is>
+      </c>
+      <c r="M1" s="1" t="inlineStr">
+        <is>
+          <t>DDE</t>
+        </is>
+      </c>
+      <c r="N1" s="1" t="inlineStr">
+        <is>
+          <t>Imidacloprid</t>
+        </is>
+      </c>
+      <c r="O1" s="1" t="inlineStr">
+        <is>
+          <t>Malathion</t>
+        </is>
+      </c>
+      <c r="P1" s="1" t="inlineStr">
+        <is>
+          <t>Methoxychlor</t>
+        </is>
+      </c>
+      <c r="Q1" s="1" t="inlineStr">
+        <is>
+          <t>Picloram</t>
+        </is>
+      </c>
+      <c r="R1" s="1" t="inlineStr">
+        <is>
+          <t>Terbufos</t>
+        </is>
+      </c>
+      <c r="S1" s="1" t="inlineStr">
+        <is>
+          <t>Thiamethoxam</t>
+        </is>
+      </c>
+      <c r="T1" s="1" t="inlineStr">
+        <is>
+          <t>Triclopyr</t>
+        </is>
+      </c>
+      <c r="U1" s="1" t="inlineStr">
+        <is>
+          <t>Veltin</t>
+        </is>
       </c>
     </row>
     <row r="2">
-      <c r="A2" s="1" t="n">
-        <v>0</v>
+      <c r="A2" s="1" t="inlineStr">
+        <is>
+          <t>Mocap</t>
+        </is>
       </c>
       <c r="B2" t="n">
         <v>0</v>
@@ -561,8 +608,10 @@
       </c>
     </row>
     <row r="3">
-      <c r="A3" s="1" t="n">
-        <v>1</v>
+      <c r="A3" s="1" t="inlineStr">
+        <is>
+          <t>Frumin</t>
+        </is>
       </c>
       <c r="B3" t="n">
         <v>65.0370207032221</v>
@@ -626,8 +675,10 @@
       </c>
     </row>
     <row r="4">
-      <c r="A4" s="1" t="n">
-        <v>2</v>
+      <c r="A4" s="1" t="inlineStr">
+        <is>
+          <t>Rampart</t>
+        </is>
       </c>
       <c r="B4" t="n">
         <v>58.47238742152714</v>
@@ -691,8 +742,10 @@
       </c>
     </row>
     <row r="5">
-      <c r="A5" s="1" t="n">
-        <v>3</v>
+      <c r="A5" s="1" t="inlineStr">
+        <is>
+          <t>Thiacloprid</t>
+        </is>
       </c>
       <c r="B5" t="n">
         <v>154.9459136471594</v>
@@ -756,8 +809,10 @@
       </c>
     </row>
     <row r="6">
-      <c r="A6" s="1" t="n">
-        <v>4</v>
+      <c r="A6" s="1" t="inlineStr">
+        <is>
+          <t>DDT</t>
+        </is>
       </c>
       <c r="B6" t="n">
         <v>157.7473314456924</v>
@@ -821,8 +876,10 @@
       </c>
     </row>
     <row r="7">
-      <c r="A7" s="1" t="n">
-        <v>5</v>
+      <c r="A7" s="1" t="inlineStr">
+        <is>
+          <t>Clopyralid</t>
+        </is>
       </c>
       <c r="B7" t="n">
         <v>136.1080983712803</v>
@@ -886,8 +943,10 @@
       </c>
     </row>
     <row r="8">
-      <c r="A8" s="1" t="n">
-        <v>6</v>
+      <c r="A8" s="1" t="inlineStr">
+        <is>
+          <t>Acetamiprid</t>
+        </is>
       </c>
       <c r="B8" t="n">
         <v>146.5955284136602</v>
@@ -951,8 +1010,10 @@
       </c>
     </row>
     <row r="9">
-      <c r="A9" s="1" t="n">
-        <v>7</v>
+      <c r="A9" s="1" t="inlineStr">
+        <is>
+          <t>Aminopyralid</t>
+        </is>
       </c>
       <c r="B9" t="n">
         <v>155.6908029262021</v>
@@ -1016,8 +1077,10 @@
       </c>
     </row>
     <row r="10">
-      <c r="A10" s="1" t="n">
-        <v>8</v>
+      <c r="A10" s="1" t="inlineStr">
+        <is>
+          <t>Cadusafos</t>
+        </is>
       </c>
       <c r="B10" t="n">
         <v>34.07987570126414</v>
@@ -1081,8 +1144,10 @@
       </c>
     </row>
     <row r="11">
-      <c r="A11" s="1" t="n">
-        <v>9</v>
+      <c r="A11" s="1" t="inlineStr">
+        <is>
+          <t>Clothianidin</t>
+        </is>
       </c>
       <c r="B11" t="n">
         <v>153.2529489195932</v>
@@ -1146,8 +1211,10 @@
       </c>
     </row>
     <row r="12">
-      <c r="A12" s="1" t="n">
-        <v>10</v>
+      <c r="A12" s="1" t="inlineStr">
+        <is>
+          <t>DDD</t>
+        </is>
       </c>
       <c r="B12" t="n">
         <v>150.9845963728377</v>
@@ -1211,8 +1278,10 @@
       </c>
     </row>
     <row r="13">
-      <c r="A13" s="1" t="n">
-        <v>11</v>
+      <c r="A13" s="1" t="inlineStr">
+        <is>
+          <t>DDE</t>
+        </is>
       </c>
       <c r="B13" t="n">
         <v>157.41915595232</v>
@@ -1276,8 +1345,10 @@
       </c>
     </row>
     <row r="14">
-      <c r="A14" s="1" t="n">
-        <v>12</v>
+      <c r="A14" s="1" t="inlineStr">
+        <is>
+          <t>Imidacloprid</t>
+        </is>
       </c>
       <c r="B14" t="n">
         <v>170.6444769423774</v>
@@ -1341,8 +1412,10 @@
       </c>
     </row>
     <row r="15">
-      <c r="A15" s="1" t="n">
-        <v>13</v>
+      <c r="A15" s="1" t="inlineStr">
+        <is>
+          <t>Malathion</t>
+        </is>
       </c>
       <c r="B15" t="n">
         <v>125.0080831366158</v>
@@ -1406,8 +1479,10 @@
       </c>
     </row>
     <row r="16">
-      <c r="A16" s="1" t="n">
-        <v>14</v>
+      <c r="A16" s="1" t="inlineStr">
+        <is>
+          <t>Methoxychlor</t>
+        </is>
       </c>
       <c r="B16" t="n">
         <v>173.6094073669362</v>
@@ -1471,8 +1546,10 @@
       </c>
     </row>
     <row r="17">
-      <c r="A17" s="1" t="n">
-        <v>15</v>
+      <c r="A17" s="1" t="inlineStr">
+        <is>
+          <t>Picloram</t>
+        </is>
       </c>
       <c r="B17" t="n">
         <v>152.2690517359319</v>
@@ -1536,8 +1613,10 @@
       </c>
     </row>
     <row r="18">
-      <c r="A18" s="1" t="n">
-        <v>16</v>
+      <c r="A18" s="1" t="inlineStr">
+        <is>
+          <t>Terbufos</t>
+        </is>
       </c>
       <c r="B18" t="n">
         <v>66.05787332474486</v>
@@ -1601,8 +1680,10 @@
       </c>
     </row>
     <row r="19">
-      <c r="A19" s="1" t="n">
-        <v>17</v>
+      <c r="A19" s="1" t="inlineStr">
+        <is>
+          <t>Thiamethoxam</t>
+        </is>
       </c>
       <c r="B19" t="n">
         <v>173.6016849652115</v>
@@ -1666,8 +1747,10 @@
       </c>
     </row>
     <row r="20">
-      <c r="A20" s="1" t="n">
-        <v>18</v>
+      <c r="A20" s="1" t="inlineStr">
+        <is>
+          <t>Triclopyr</t>
+        </is>
       </c>
       <c r="B20" t="n">
         <v>143.163506175924</v>
@@ -1731,8 +1814,10 @@
       </c>
     </row>
     <row r="21">
-      <c r="A21" s="1" t="n">
-        <v>19</v>
+      <c r="A21" s="1" t="inlineStr">
+        <is>
+          <t>Veltin</t>
+        </is>
       </c>
       <c r="B21" t="n">
         <v>73.88929274131631</v>
